--- a/list.xlsx
+++ b/list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AB1A18-CFA0-4DB5-AFAE-A3BDFF79FE2D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94152C0D-9B7C-4519-A6F9-4B26AFFE1A62}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>citylistname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,65 @@
   </si>
   <si>
     <t>空白項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數列順</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>東北</t>
+  </si>
+  <si>
+    <t>関東</t>
+  </si>
+  <si>
+    <t>中部</t>
+  </si>
+  <si>
+    <t>関西</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>四国</t>
+  </si>
+  <si>
+    <t>九州</t>
+  </si>
+  <si>
+    <t>大都市</t>
+  </si>
+  <si>
+    <t>1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35-38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39-46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,8 +333,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -556,21 +616,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,397 +639,593 @@
         <v>51</v>
       </c>
       <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
         <v>47</v>
+      </c>
+      <c r="C49">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/list.xlsx
+++ b/list.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94152C0D-9B7C-4519-A6F9-4B26AFFE1A62}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4038510C-9D26-4137-8CC5-9A9D8BA96F67}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>citylistname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,10 @@
   </si>
   <si>
     <t>39-46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,615 +620,760 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
         <v>21</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
         <v>26</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
         <v>27</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
         <v>28</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
         <v>29</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
         <v>30</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
         <v>31</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
         <v>32</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
         <v>33</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
         <v>34</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
         <v>35</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
         <v>36</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
         <v>37</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
         <v>38</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
         <v>39</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
         <v>40</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
         <v>41</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
         <v>42</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
         <v>43</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
         <v>44</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
         <v>45</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
         <v>46</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
         <v>47</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>46</v>
       </c>
     </row>
